--- a/wash_P/LBR.xlsx
+++ b/wash_P/LBR.xlsx
@@ -84166,7 +84166,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="n">
         <v>0</v>
@@ -87294,7 +87294,7 @@
         <v>0</v>
       </c>
       <c r="DE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="n">
         <v>0</v>
